--- a/test files/0909 - Copy.xlsx
+++ b/test files/0909 - Copy.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscoded\Credit_App\Credit_App\test files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8E0EA-FC37-4671-AE73-A0C9F8B953E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statment" sheetId="6" r:id="rId1"/>
@@ -23,7 +29,7 @@
     <sheet name="SPO 16.06 TO 05.07" sheetId="18" r:id="rId14"/>
     <sheet name="SPO 06.07 TO 31.07" sheetId="19" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -179,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -658,45 +664,45 @@
   <cellStyles count="41">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="2"/>
-    <cellStyle name="Normal 10 3" xfId="3"/>
-    <cellStyle name="Normal 10 4" xfId="4"/>
-    <cellStyle name="Normal 140" xfId="5"/>
-    <cellStyle name="Normal 148" xfId="6"/>
-    <cellStyle name="Normal 149" xfId="7"/>
-    <cellStyle name="Normal 151" xfId="8"/>
-    <cellStyle name="Normal 152" xfId="40"/>
-    <cellStyle name="Normal 153" xfId="9"/>
-    <cellStyle name="Normal 154" xfId="10"/>
-    <cellStyle name="Normal 157" xfId="38"/>
-    <cellStyle name="Normal 158" xfId="39"/>
-    <cellStyle name="Normal 159" xfId="11"/>
-    <cellStyle name="Normal 160" xfId="12"/>
-    <cellStyle name="Normal 162" xfId="13"/>
-    <cellStyle name="Normal 163" xfId="14"/>
-    <cellStyle name="Normal 165" xfId="15"/>
-    <cellStyle name="Normal 166" xfId="16"/>
-    <cellStyle name="Normal 19 2" xfId="17"/>
-    <cellStyle name="Normal 19 3" xfId="18"/>
-    <cellStyle name="Normal 19 4" xfId="19"/>
-    <cellStyle name="Normal 2 2" xfId="20"/>
-    <cellStyle name="Normal 2 3" xfId="21"/>
-    <cellStyle name="Normal 2 4" xfId="22"/>
-    <cellStyle name="Normal 20 2" xfId="23"/>
-    <cellStyle name="Normal 20 3" xfId="24"/>
-    <cellStyle name="Normal 20 4" xfId="25"/>
-    <cellStyle name="Normal 23 2" xfId="26"/>
-    <cellStyle name="Normal 23 3" xfId="27"/>
-    <cellStyle name="Normal 23 4" xfId="28"/>
-    <cellStyle name="Normal 37 2" xfId="29"/>
-    <cellStyle name="Normal 37 3" xfId="30"/>
-    <cellStyle name="Normal 37 4" xfId="31"/>
-    <cellStyle name="Normal 38 2" xfId="32"/>
-    <cellStyle name="Normal 38 3" xfId="33"/>
-    <cellStyle name="Normal 38 4" xfId="34"/>
-    <cellStyle name="Normal 9 2" xfId="35"/>
-    <cellStyle name="Normal 9 3" xfId="36"/>
-    <cellStyle name="Normal 9 4" xfId="37"/>
+    <cellStyle name="Normal 10 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 10 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 140" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 148" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 149" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 151" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 152" xfId="40" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 153" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 154" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 157" xfId="38" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 158" xfId="39" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 159" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 160" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 162" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 163" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 165" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 166" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 19 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 19 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 19 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 20 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 20 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 20 4" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 23 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 23 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 23 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 37 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 37 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 37 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 38 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 38 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 38 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 9 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 9 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 9 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,7 +760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,9 +792,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,6 +844,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,11 +1037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1350,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="46" t="str">
         <f t="shared" si="4"/>
@@ -1438,7 +1480,7 @@
         <v>45131</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" s="41">
         <f t="shared" si="2"/>
@@ -1509,8 +1551,8 @@
       </c>
       <c r="N10" s="41"/>
       <c r="O10" s="51">
-        <f>+(166.25*7*0.75*0.9)+25</f>
-        <v>810.53125</v>
+        <f>+(166.25*7*0.75*0.9)+50</f>
+        <v>835.53125</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="41"/>
@@ -1656,8 +1698,8 @@
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="51">
-        <f>+(420.28*7*0.75*0.9)+75</f>
-        <v>2060.8230000000003</v>
+        <f>+(420.28*7*0.75*0.9)+50</f>
+        <v>2035.8230000000003</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="41"/>
@@ -2226,19 +2268,22 @@
       <c r="I38" s="45"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K35">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I35">
-      <formula1>contract!$I$1:$AA$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>contract!$I$1:$AA$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:I35</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{34625691-6328-479E-B89D-DC17A4B73AF3}">
           <x14:formula1>
             <xm:f>basic!$I$1:$AG$1</xm:f>
@@ -2258,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3033,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3808,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4809,14 +4854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5800,7 +5845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6575,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7140,7 +7185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7879,7 +7924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8654,7 +8699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -8994,7 +9039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9334,7 +9379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9673,7 +9718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10448,7 +10493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11007,7 +11052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
